--- a/part_2/fw_1.xlsx
+++ b/part_2/fw_1.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maxime/Documents/m1/info-0045-intro-sec/projects/project_1/part_2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4127E04B-C686-3845-87C3-AABA07E35B13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3A191AD-F552-FB48-88CB-6E46DC6C3C06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="30840" xr2:uid="{E829C1DA-859E-A941-866D-3CD7C611D6AC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -908,10 +908,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8CC1AFC-C475-0F4C-94E8-2206FE8B26CC}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1620,7 +1623,7 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <pageSetup paperSize="9" scale="93" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
   <ignoredErrors>
     <ignoredError sqref="F3:F4 F6:F8 D10 F12:F13 F14 F16:F18 F21 D22 D19" numberStoredAsText="1"/>
   </ignoredErrors>

--- a/part_2/fw_1.xlsx
+++ b/part_2/fw_1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maxime/Documents/m1/info-0045-intro-sec/projects/project_1/part_2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3A191AD-F552-FB48-88CB-6E46DC6C3C06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB9B7243-E5B8-BB44-A7A3-BF3ACFF74394}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="30840" xr2:uid="{E829C1DA-859E-A941-866D-3CD7C611D6AC}"/>
+    <workbookView xWindow="38400" yWindow="500" windowWidth="38400" windowHeight="30820" xr2:uid="{E829C1DA-859E-A941-866D-3CD7C611D6AC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="48">
   <si>
     <t>Zone</t>
   </si>
@@ -124,9 +124,6 @@
     <t>25</t>
   </si>
   <si>
-    <t>SMT out</t>
-  </si>
-  <si>
     <t>Log + drop</t>
   </si>
   <si>
@@ -148,9 +145,6 @@
     <t>z-http</t>
   </si>
   <si>
-    <t>DNS response in</t>
-  </si>
-  <si>
     <t>53</t>
   </si>
   <si>
@@ -202,13 +196,10 @@
     <t>LDNS -&gt; remote DNS server</t>
   </si>
   <si>
-    <t>PDNS response out</t>
-  </si>
-  <si>
-    <t>PDNS response in</t>
-  </si>
-  <si>
     <t>Log and drop by default</t>
+  </si>
+  <si>
+    <t>SMTP out</t>
   </si>
 </sst>
 </file>
@@ -270,7 +261,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="24">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -282,21 +273,6 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
       <right/>
       <top style="thin">
         <color indexed="64"/>
@@ -377,6 +353,28 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right/>
       <top style="thin">
         <color indexed="64"/>
@@ -411,12 +409,25 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top/>
-      <bottom style="mediumDashed">
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -424,8 +435,10 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="mediumDashed">
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -435,84 +448,10 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top/>
-      <bottom style="mediumDashed">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="mediumDashed">
+      <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="mediumDashed">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="mediumDashed">
-        <color indexed="64"/>
-      </top>
-      <bottom style="mediumDashed">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="mediumDashed">
-        <color indexed="64"/>
-      </top>
-      <bottom style="mediumDashed">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="mediumDashed">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="mediumDashed">
-        <color indexed="64"/>
-      </top>
-      <bottom style="mediumDashed">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="mediumDashed">
-        <color indexed="64"/>
-      </right>
-      <top style="mediumDashed">
-        <color indexed="64"/>
-      </top>
-      <bottom style="mediumDashed">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="mediumDashed">
+      <bottom style="hair">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -523,20 +462,7 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="mediumDashed">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="mediumDashed">
+      <bottom style="hair">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -545,50 +471,42 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -911,10 +829,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I24"/>
+  <dimension ref="A1:J29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -925,707 +843,723 @@
     <col min="9" max="9" width="30.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="14" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="3" cm="1">
+      <c r="B2" s="2" cm="1">
         <f t="array" ref="B2:B24">_xlfn.SEQUENCE(23)</f>
         <v>1</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="4" t="s">
+      <c r="C2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="4">
+      <c r="F2" s="3">
         <v>25</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="I2" s="5" t="s">
+      <c r="H2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="7">
+      <c r="B3" s="6">
         <v>2</v>
       </c>
-      <c r="C3" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="8" t="s">
+      <c r="C3" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="F3" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="G3" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="H3" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="I3" s="9" t="s">
+      <c r="H3" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I3" s="8" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="31" t="s">
+      <c r="J3" s="6"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="28">
+      <c r="B4" s="15">
         <v>3</v>
       </c>
-      <c r="C4" s="29" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="29" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="29" t="s">
+      <c r="C4" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="29" t="s">
+      <c r="F4" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="G4" s="29" t="s">
+      <c r="G4" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="H4" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="I4" s="32" t="s">
+      <c r="H4" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4" s="26" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="27" t="s">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="28">
+      <c r="B5" s="27">
         <v>4</v>
       </c>
-      <c r="C5" s="29" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="29" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="29" t="s">
+      <c r="C5" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="29" t="s">
-        <v>10</v>
-      </c>
-      <c r="G5" s="29" t="s">
-        <v>10</v>
-      </c>
-      <c r="H5" s="29" t="s">
+      <c r="F5" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="H5" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="I5" s="29" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="6">
+        <v>5</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I6" s="8" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="6">
+        <v>6</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I7" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="15">
+        <v>7</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="H8" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="I8" s="26" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="9">
+        <v>8</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G9" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="H9" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="I9" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="I5" s="30" t="s">
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" s="18" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="6" t="s">
+      <c r="B10" s="30">
         <v>9</v>
       </c>
-      <c r="B6" s="7">
-        <v>5</v>
-      </c>
-      <c r="C6" s="8" t="s">
+      <c r="C10" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="F10" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="G10" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="H10" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="I10" s="32" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" s="6">
+        <v>10</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I11" s="8" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" s="6">
         <v>11</v>
       </c>
-      <c r="D6" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="F6" s="8" t="s">
+      <c r="C12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H12" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I12" s="8" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" s="6">
+        <v>12</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H13" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I13" s="8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A14" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14" s="15">
+        <v>13</v>
+      </c>
+      <c r="C14" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="D14" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F14" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="G14" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="H14" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="I14" s="26" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A15" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" s="9">
+        <v>14</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="F15" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G15" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="H15" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="I15" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A16" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="B16" s="2">
+        <v>15</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I16" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A17" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="B17" s="6">
+        <v>16</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H17" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I17" s="8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A18" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="B18" s="6">
+        <v>17</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H18" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I18" s="8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A19" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="B19" s="15">
+        <v>18</v>
+      </c>
+      <c r="C19" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="D19" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E19" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="F19" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="G19" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="H19" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="I19" s="26" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A20" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="B20" s="27">
+        <v>19</v>
+      </c>
+      <c r="C20" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="D20" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="E20" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="F20" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="G20" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="H20" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="I20" s="29" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A21" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="B21" s="6">
+        <v>20</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H21" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I21" s="8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A22" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="B22" s="15">
         <v>21</v>
       </c>
-      <c r="G6" s="8" t="s">
+      <c r="C22" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="D22" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E22" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F22" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="G22" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="H6" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="I6" s="9" t="s">
+      <c r="H22" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="I22" s="26" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A23" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="B23" s="9">
         <v>22</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="7">
-        <v>6</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="F7" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="G7" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="H7" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="I7" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="24">
-        <v>7</v>
-      </c>
-      <c r="C8" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="F8" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="G8" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="H8" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="I8" s="26" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" s="11">
-        <v>8</v>
-      </c>
-      <c r="C9" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="D9" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E9" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="F9" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="G9" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="H9" s="12" t="s">
+      <c r="C23" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="D23" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E23" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="F23" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G23" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="H23" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="I23" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="I9" s="13" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="33" t="s">
-        <v>29</v>
-      </c>
-      <c r="B10" s="34">
-        <v>9</v>
-      </c>
-      <c r="C10" s="35" t="s">
-        <v>10</v>
-      </c>
-      <c r="D10" s="35" t="s">
-        <v>31</v>
-      </c>
-      <c r="E10" s="35" t="s">
-        <v>32</v>
-      </c>
-      <c r="F10" s="35" t="s">
-        <v>10</v>
-      </c>
-      <c r="G10" s="35" t="s">
-        <v>33</v>
-      </c>
-      <c r="H10" s="35" t="s">
-        <v>13</v>
-      </c>
-      <c r="I10" s="36" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="37" t="s">
-        <v>29</v>
-      </c>
-      <c r="B11" s="28">
-        <v>10</v>
-      </c>
-      <c r="C11" s="29" t="s">
-        <v>10</v>
-      </c>
-      <c r="D11" s="29" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="F11" s="29" t="s">
-        <v>10</v>
-      </c>
-      <c r="G11" s="29" t="s">
-        <v>10</v>
-      </c>
-      <c r="H11" s="29" t="s">
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A24" s="22"/>
+      <c r="B24" s="23">
         <v>23</v>
       </c>
-      <c r="I11" s="30" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="B12" s="7">
-        <v>11</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="F12" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="G12" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="H12" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="I12" s="9" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="B13" s="7">
-        <v>12</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="F13" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="G13" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="H13" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="I13" s="9" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="38" t="s">
-        <v>29</v>
-      </c>
-      <c r="B14" s="24">
-        <v>13</v>
-      </c>
-      <c r="C14" s="25" t="s">
-        <v>35</v>
-      </c>
-      <c r="D14" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="E14" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="F14" s="25" t="s">
-        <v>36</v>
-      </c>
-      <c r="G14" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="H14" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="I14" s="26" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A15" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="B15" s="11">
-        <v>14</v>
-      </c>
-      <c r="C15" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="D15" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E15" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="F15" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="G15" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="H15" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="I15" s="13" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A16" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="B16" s="3">
-        <v>15</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="G16" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H16" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="I16" s="5" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A17" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="B17" s="7">
-        <v>16</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E17" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="F17" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="G17" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="H17" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="I17" s="9" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A18" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="B18" s="7">
-        <v>17</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E18" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="F18" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="G18" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="H18" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="I18" s="9" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="39" t="s">
-        <v>39</v>
-      </c>
-      <c r="B19" s="24">
-        <v>18</v>
-      </c>
-      <c r="C19" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="D19" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="E19" s="25" t="s">
-        <v>43</v>
-      </c>
-      <c r="F19" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="G19" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="H19" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="I19" s="26" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="40" t="s">
-        <v>39</v>
-      </c>
-      <c r="B20" s="28">
-        <v>19</v>
-      </c>
-      <c r="C20" s="29" t="s">
-        <v>10</v>
-      </c>
-      <c r="D20" s="29" t="s">
-        <v>10</v>
-      </c>
-      <c r="E20" s="29" t="s">
-        <v>45</v>
-      </c>
-      <c r="F20" s="29" t="s">
-        <v>10</v>
-      </c>
-      <c r="G20" s="29" t="s">
-        <v>10</v>
-      </c>
-      <c r="H20" s="29" t="s">
-        <v>23</v>
-      </c>
-      <c r="I20" s="30" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A21" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="B21" s="7">
-        <v>20</v>
-      </c>
-      <c r="C21" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="D21" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E21" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="F21" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="G21" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="H21" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="I21" s="9" t="s">
+      <c r="C24" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="D24" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="E24" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="F24" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="G24" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="H24" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="I24" s="25" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="39" t="s">
-        <v>39</v>
-      </c>
-      <c r="B22" s="24">
-        <v>21</v>
-      </c>
-      <c r="C22" s="25" t="s">
-        <v>43</v>
-      </c>
-      <c r="D22" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="E22" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="F22" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="G22" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="H22" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="I22" s="26" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A23" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="B23" s="11">
-        <v>22</v>
-      </c>
-      <c r="C23" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="D23" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E23" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="F23" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="G23" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="H23" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="I23" s="13" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A24" s="19"/>
-      <c r="B24" s="20">
-        <v>23</v>
-      </c>
-      <c r="C24" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="D24" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="E24" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="F24" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="G24" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="H24" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="I24" s="22" t="s">
-        <v>50</v>
-      </c>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D28" s="6"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="6"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D29" s="6"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="93" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
   <ignoredErrors>
-    <ignoredError sqref="F3:F4 F6:F8 D10 F12:F13 F14 F16:F18 F21 D22 D19" numberStoredAsText="1"/>
+    <ignoredError sqref="F3:F4 F6:F8 F12:F14 F16:F19 F21:F22 F11" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>